--- a/WIP/Report/Checklists/Checklist.xlsx
+++ b/WIP/Report/Checklists/Checklist.xlsx
@@ -4,22 +4,33 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="11340" windowHeight="3225"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="11340" windowHeight="3225" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Login " sheetId="4" r:id="rId1"/>
+    <sheet name="Logout" sheetId="8" r:id="rId2"/>
+    <sheet name="Change password" sheetId="9" r:id="rId3"/>
+    <sheet name="List Calendar Event" sheetId="1" r:id="rId4"/>
+    <sheet name="Add New Calendar Event" sheetId="5" r:id="rId5"/>
+    <sheet name="Delete Calendar Event" sheetId="6" r:id="rId6"/>
+    <sheet name="Search Calendar Event" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc388829743" localSheetId="0">Login!#REF!</definedName>
+    <definedName name="_Toc388829743" localSheetId="4">'Add New Calendar Event'!#REF!</definedName>
+    <definedName name="_Toc388829743" localSheetId="2">'Change password'!#REF!</definedName>
+    <definedName name="_Toc388829743" localSheetId="5">'Delete Calendar Event'!#REF!</definedName>
+    <definedName name="_Toc388829743" localSheetId="3">'List Calendar Event'!#REF!</definedName>
+    <definedName name="_Toc388829743" localSheetId="0">'Login '!#REF!</definedName>
+    <definedName name="_Toc388829743" localSheetId="1">Logout!#REF!</definedName>
+    <definedName name="_Toc388829743" localSheetId="6">'Search Calendar Event'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="63">
   <si>
     <t>Question</t>
   </si>
@@ -405,12 +416,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,6 +466,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,39 +780,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="12" customWidth="1"/>
     <col min="2" max="2" width="60.5703125" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="27"/>
+    <col min="3" max="5" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -810,11 +821,11 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -823,11 +834,11 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -836,11 +847,11 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -849,9 +860,9 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -862,11 +873,11 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -875,9 +886,9 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -888,11 +899,11 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -901,11 +912,11 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -914,11 +925,11 @@
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -927,47 +938,47 @@
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>1</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -975,25 +986,25 @@
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>3</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1001,23 +1012,23 @@
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -1026,9 +1037,9 @@
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1039,9 +1050,9 @@
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1052,9 +1063,9 @@
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1065,9 +1076,9 @@
       <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1078,9 +1089,9 @@
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1091,20 +1102,20 @@
       <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
@@ -1113,9 +1124,9 @@
       <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1126,9 +1137,9 @@
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1139,9 +1150,9 @@
       <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1152,9 +1163,9 @@
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1165,20 +1176,20 @@
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -1187,9 +1198,9 @@
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1200,9 +1211,9 @@
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1213,20 +1224,20 @@
       <c r="B36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25" t="s">
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
@@ -1235,11 +1246,11 @@
       <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="C38" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
@@ -1248,11 +1259,11 @@
       <c r="B39" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="C39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -1261,11 +1272,11 @@
       <c r="B40" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="C40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
@@ -1274,9 +1285,9 @@
       <c r="B41" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25" t="s">
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1287,11 +1298,11 @@
       <c r="B42" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="C42" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
@@ -1300,11 +1311,11 @@
       <c r="B43" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="C43" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
@@ -1313,20 +1324,20 @@
       <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="C44" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
@@ -1335,11 +1346,11 @@
       <c r="B46" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="C46" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
@@ -1348,11 +1359,11 @@
       <c r="B47" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="C47" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
@@ -1361,11 +1372,11 @@
       <c r="B48" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="C48" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
@@ -1374,11 +1385,11 @@
       <c r="B49" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="C49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
@@ -1387,11 +1398,11 @@
       <c r="B50" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="C50" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
@@ -1400,11 +1411,11 @@
       <c r="B51" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="C51" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
@@ -1413,11 +1424,11 @@
       <c r="B52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="C52" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
@@ -1426,20 +1437,20 @@
       <c r="B53" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="C53" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
@@ -1448,9 +1459,9 @@
       <c r="B55" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
     </row>
     <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
@@ -1459,11 +1470,11 @@
       <c r="B56" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+      <c r="C56" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
@@ -1472,11 +1483,11 @@
       <c r="B57" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="C57" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
@@ -1485,11 +1496,11 @@
       <c r="B58" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="C58" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
@@ -1498,11 +1509,11 @@
       <c r="B59" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="C59" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
@@ -1511,24 +1522,24 @@
       <c r="B60" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="C60" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="23">
         <v>27</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="23">
         <v>0</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="23">
         <v>22</v>
       </c>
     </row>
@@ -1548,17 +1559,4691 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>3</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>6</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>4</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>5</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>6</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>8</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>1</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>2</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>3</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>4</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>6</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="23">
+        <v>22</v>
+      </c>
+      <c r="D61" s="23">
+        <v>0</v>
+      </c>
+      <c r="E61" s="23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B54:C54"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>3</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>6</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>4</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>5</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>6</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>8</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>1</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>2</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>3</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>4</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>6</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="23">
+        <v>29</v>
+      </c>
+      <c r="D61" s="23">
+        <v>0</v>
+      </c>
+      <c r="E61" s="23">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B54:C54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>3</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>6</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>4</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>5</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>6</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>8</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>1</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>2</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>3</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>4</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>6</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="23">
+        <v>25</v>
+      </c>
+      <c r="D61" s="23">
+        <v>0</v>
+      </c>
+      <c r="E61" s="23">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B45:C45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>3</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>6</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>4</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>5</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>6</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>8</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>1</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>2</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>3</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>4</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>6</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="23">
+        <v>31</v>
+      </c>
+      <c r="D61" s="23">
+        <v>0</v>
+      </c>
+      <c r="E61" s="23">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B54:C54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>3</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>6</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>4</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>5</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>6</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>8</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>1</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>2</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>3</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>4</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>6</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="23">
+        <v>24</v>
+      </c>
+      <c r="D61" s="23">
+        <v>0</v>
+      </c>
+      <c r="E61" s="23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B54:C54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>3</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>6</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>3</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>4</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>5</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>6</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>8</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>1</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>2</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>3</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>4</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>6</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="23">
+        <v>27</v>
+      </c>
+      <c r="D61" s="23">
+        <v>0</v>
+      </c>
+      <c r="E61" s="23">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B54:C54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
